--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AC/20/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/AC/20/seed1/result_data_KNN.xlsx
@@ -496,13 +496,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-21.672</v>
+        <v>-22.146</v>
       </c>
       <c r="B4" t="n">
         <v>4.04</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.906</v>
+        <v>-12.927</v>
       </c>
       <c r="D4" t="n">
         <v>-7.43</v>
@@ -519,7 +519,7 @@
         <v>4.35</v>
       </c>
       <c r="C5" t="n">
-        <v>-12.906</v>
+        <v>-12.927</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -530,13 +530,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-20.766</v>
+        <v>-21.345</v>
       </c>
       <c r="B6" t="n">
         <v>7.87</v>
       </c>
       <c r="C6" t="n">
-        <v>-11.798</v>
+        <v>-13.017</v>
       </c>
       <c r="D6" t="n">
         <v>-8.59</v>
@@ -547,7 +547,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-20.88</v>
+        <v>-21.089</v>
       </c>
       <c r="B7" t="n">
         <v>6.56</v>
@@ -564,13 +564,13 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-21.834</v>
+        <v>-21.593</v>
       </c>
       <c r="B8" t="n">
         <v>7.52</v>
       </c>
       <c r="C8" t="n">
-        <v>-12.628</v>
+        <v>-12.57</v>
       </c>
       <c r="D8" t="n">
         <v>-7.09</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.108</v>
+        <v>-21.283</v>
       </c>
       <c r="B16" t="n">
         <v>8.949999999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>-12.238</v>
+        <v>-12.569</v>
       </c>
       <c r="D16" t="n">
         <v>-4.8</v>
@@ -768,7 +768,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-22.208</v>
+        <v>-21.893</v>
       </c>
       <c r="B20" t="n">
         <v>5.51</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.862</v>
+        <v>-21.14</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
@@ -808,7 +808,7 @@
         <v>4.26</v>
       </c>
       <c r="C22" t="n">
-        <v>-11.836</v>
+        <v>-12.78</v>
       </c>
       <c r="D22" t="n">
         <v>-5.14</v>
